--- a/biology/Botanique/Lygeum_spartum/Lygeum_spartum.xlsx
+++ b/biology/Botanique/Lygeum_spartum/Lygeum_spartum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lygeum spartum (le sparte, spart ou faux sparte) est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, endémique du sud du bassin méditerranéen. C'est l'unique espèce du genre Lygeum (genre monotypique), lui-même unique genre de la tribu des Lygeeae (tribu monotypique). 
 La fibre de ses feuilles entre dans la composition des cordages et de certains papiers de fort grammage (papier alfa).
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List[3]  :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List  :
 Lygeum apiculatum Gand.
 Lygeum insulare Gand.
 Lygeum loscosii Gand.
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Bractée de sparte
@@ -584,9 +600,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Lygeum spartum comprend une grande partie du bassin méditerranéen[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Lygeum spartum comprend une grande partie du bassin méditerranéen :
 Afrique du Nord : Algérie, Libye, Maroc, Tunisie ;
 Europe méridionale : Espagne, Italie (Sardaigne, Mezzogiorno), Grèce (Crète) ;
 Asie occidentale : Sinaï (Égypte).
@@ -619,7 +637,9 @@
           <t>Exploitation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles de sparte, comme celles d'alfa (Stipa tenacissima), sont utilisées en passementerie (chapeaux, chaussures, poches, nattes de sol), dans la corderie et pour la fabrication de papier de luxe (« papier alfa »).
 </t>
